--- a/Documentation/Pot and ADC Charact.xlsx
+++ b/Documentation/Pot and ADC Charact.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\User\Desktop\Mechatronics\3A\MTE 325\Two Axis Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\User\Desktop\Mechatronics\3A\MTE 325\Two Axis Project\TwoAxisMachine\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FBFC90B3-F585-4BA6-AAEF-EFB41010F90C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14ACE942-90D8-46DD-A888-D645FC79DADC}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{07FE0CE1-C36E-4D72-A333-C7CDB29FBF72}"/>
   </bookViews>
@@ -25,12 +25,72 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>dist</t>
   </si>
   <si>
     <t>Resistance</t>
+  </si>
+  <si>
+    <t>Voltage</t>
+  </si>
+  <si>
+    <t>ADC Reading</t>
+  </si>
+  <si>
+    <t>0010</t>
+  </si>
+  <si>
+    <t>0020</t>
+  </si>
+  <si>
+    <t>0030</t>
+  </si>
+  <si>
+    <t>0044</t>
+  </si>
+  <si>
+    <t>0054</t>
+  </si>
+  <si>
+    <t>0064</t>
+  </si>
+  <si>
+    <t>0074</t>
+  </si>
+  <si>
+    <t>0088</t>
+  </si>
+  <si>
+    <t>0098</t>
+  </si>
+  <si>
+    <t>00a8</t>
+  </si>
+  <si>
+    <t>00b8</t>
+  </si>
+  <si>
+    <t>00cc</t>
+  </si>
+  <si>
+    <t>00dc</t>
+  </si>
+  <si>
+    <t>00ec</t>
+  </si>
+  <si>
+    <t>00fc</t>
+  </si>
+  <si>
+    <t>ADC Hex</t>
+  </si>
+  <si>
+    <t>Speed</t>
+  </si>
+  <si>
+    <t>ADC</t>
   </si>
 </sst>
 </file>
@@ -66,8 +126,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -100,6 +166,35 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Resistance vs. Knob Rotation</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Dist.</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -360,6 +455,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Dist (mm)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -422,6 +572,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Resistance (ohm)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -460,6 +665,1095 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="412953888"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Voltage vs. ADC Reading</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$20:$A$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.32</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.54</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.76</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.98</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.42</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.64</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.86</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.08</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$20:$B$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>236</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>252</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-116D-447B-ADC9-6B292007F38B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="436717272"/>
+        <c:axId val="436719896"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="436717272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Voltage (V)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="436719896"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="436719896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>ADC Reading</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="436717272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>ADC Response to Motor Speed</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="3"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$M$2:$M$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>236</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>252</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$N$2:$N$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>-26000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>26000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A4A0-499B-BF81-47C6B2DF4CB2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="445459008"/>
+        <c:axId val="445458352"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="445459008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>ADC Value</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="445458352"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="445458352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Desired Speed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="445459008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -555,6 +1849,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1071,20 +2445,1052 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>26670</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>403860</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>125730</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>26670</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>125730</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1104,6 +3510,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>487680</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41CA8FB1-989C-4703-B11F-DEBB1A24E7E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>472440</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>118110</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>118110</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="14" name="Chart 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7186AA4-9BDB-4066-8E6B-E746604CDEB3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1409,144 +3887,419 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3084BD3F-509F-4725-BCBE-625DBFC6F01C}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="T25" sqref="T24:U25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="M1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
         <v>3.3</v>
       </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>-26000</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
         <v>34</v>
       </c>
+      <c r="M3">
+        <v>16</v>
+      </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4">
         <v>270</v>
       </c>
+      <c r="M4">
+        <v>32</v>
+      </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5">
         <v>925</v>
       </c>
+      <c r="M5">
+        <v>48</v>
+      </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6">
         <v>1717</v>
       </c>
+      <c r="M6">
+        <v>68</v>
+      </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7">
         <v>2850</v>
       </c>
+      <c r="M7">
+        <v>84</v>
+      </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8">
         <v>3940</v>
       </c>
+      <c r="M8">
+        <v>100</v>
+      </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9">
         <v>5160</v>
       </c>
+      <c r="M9">
+        <v>116</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10">
         <v>5930</v>
       </c>
+      <c r="M10">
+        <v>136</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11">
         <v>7200</v>
       </c>
+      <c r="M11">
+        <v>152</v>
+      </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12">
         <v>8100</v>
       </c>
+      <c r="M12">
+        <v>168</v>
+      </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13">
         <v>8840</v>
       </c>
+      <c r="M13">
+        <v>184</v>
+      </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14">
         <v>9600</v>
       </c>
+      <c r="M14">
+        <v>204</v>
+      </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15">
         <v>9900</v>
       </c>
+      <c r="M15">
+        <v>220</v>
+      </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16">
         <v>9900</v>
+      </c>
+      <c r="M16">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M17">
+        <v>252</v>
+      </c>
+      <c r="N17">
+        <v>26000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>0</v>
+      </c>
+      <c r="B20" s="1">
+        <f t="shared" ref="B20:B35" si="0">HEX2DEC(C20)</f>
+        <v>0</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>0.22</v>
+      </c>
+      <c r="B21" s="1">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>0.44</v>
+      </c>
+      <c r="B22" s="1">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>0.66</v>
+      </c>
+      <c r="B23" s="1">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>0.88</v>
+      </c>
+      <c r="B24" s="1">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B25" s="1">
+        <f t="shared" si="0"/>
+        <v>84</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>1.32</v>
+      </c>
+      <c r="B26" s="1">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>1.54</v>
+      </c>
+      <c r="B27" s="1">
+        <f t="shared" si="0"/>
+        <v>116</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>1.76</v>
+      </c>
+      <c r="B28" s="1">
+        <f t="shared" si="0"/>
+        <v>136</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>1.98</v>
+      </c>
+      <c r="B29" s="1">
+        <f t="shared" si="0"/>
+        <v>152</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B30" s="1">
+        <f t="shared" si="0"/>
+        <v>168</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>2.42</v>
+      </c>
+      <c r="B31" s="1">
+        <f t="shared" si="0"/>
+        <v>184</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>2.64</v>
+      </c>
+      <c r="B32" s="1">
+        <f t="shared" si="0"/>
+        <v>204</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>2.86</v>
+      </c>
+      <c r="B33" s="1">
+        <f t="shared" si="0"/>
+        <v>220</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>3.08</v>
+      </c>
+      <c r="B34" s="1">
+        <f t="shared" si="0"/>
+        <v>236</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="B35" s="1">
+        <f t="shared" si="0"/>
+        <v>252</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>